--- a/Price-Item.xlsx
+++ b/Price-Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d7db41c830d78c3/Documents/GitHub/Developpement-d-un-site-interactif-pour-une-agence-de-location-de-vehicule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{54E1BEEB-E162-495C-B5CF-C6AFB867E775}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{78CFF4E2-2A25-4C77-AEDE-8FD89348E6E0}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{54E1BEEB-E162-495C-B5CF-C6AFB867E775}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4FCAE507-7A63-40E3-9738-2D82A313B665}"/>
   <bookViews>
-    <workbookView xWindow="-10785" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{E3CD32EB-9278-4184-9977-3D3FBE2906BE}"/>
+    <workbookView xWindow="-10590" yWindow="5100" windowWidth="21600" windowHeight="11385" xr2:uid="{E3CD32EB-9278-4184-9977-3D3FBE2906BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -236,38 +237,38 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +596,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +604,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -624,200 +626,200 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
-        <f>D13+D13*5%</f>
+      <c r="D3" s="14">
+        <f>D13*(1+5%)</f>
         <v>10.5</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="13">
-        <f>D13+D13*9%</f>
-        <v>10.9</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="16">
+        <f>D13*(1+14%)</f>
+        <v>11.400000000000002</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17">
-        <f t="shared" ref="D4:D9" si="0">D14+D14*5%</f>
-        <v>12.6</v>
-      </c>
-      <c r="E4" s="12">
-        <f>D14+D14*9%</f>
-        <v>13.08</v>
-      </c>
-      <c r="F4" s="13">
-        <f t="shared" ref="F4:F9" si="1">D14+D14*9%</f>
-        <v>13.08</v>
-      </c>
-      <c r="G4" s="14">
-        <f>D14+D14*5%</f>
-        <v>12.6</v>
+      <c r="D4" s="14">
+        <f>D14</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="18">
+        <f>D14</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="16">
+        <f>D14</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="19">
+        <f>D14</f>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12">
-        <f t="shared" ref="E5:E8" si="2">D15+D15*9%</f>
-        <v>15.26</v>
-      </c>
-      <c r="F5" s="13">
-        <f t="shared" si="1"/>
-        <v>15.26</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" ref="G5:G9" si="3">D15+D15*5%</f>
-        <v>14.7</v>
+      <c r="D5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="18">
+        <f>D15</f>
+        <v>14</v>
+      </c>
+      <c r="F5" s="16">
+        <f>D15</f>
+        <v>14</v>
+      </c>
+      <c r="G5" s="19">
+        <f>D15</f>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="13">
-        <f t="shared" si="1"/>
-        <v>981</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" si="3"/>
-        <v>945</v>
+      <c r="D6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16">
+        <f>D16</f>
+        <v>900</v>
+      </c>
+      <c r="G6" s="19">
+        <f>D16</f>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="3"/>
-        <v>16.8</v>
+      <c r="D7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="19">
+        <f>D17</f>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="2"/>
-        <v>21.8</v>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" si="1"/>
-        <v>21.8</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="3"/>
-        <v>21</v>
+      <c r="D8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18">
+        <f>D18</f>
+        <v>20</v>
+      </c>
+      <c r="F8" s="16">
+        <f>D18</f>
+        <v>20</v>
+      </c>
+      <c r="G8" s="19">
+        <f>D18</f>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="3"/>
-        <v>262.5</v>
+      <c r="D9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="19">
+        <f>D19</f>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="10">
         <v>900</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="11">
         <v>250</v>
       </c>
     </row>
